--- a/Diagrama Gantt Tecnoventas.xlsx
+++ b/Diagrama Gantt Tecnoventas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7a4cac0f4b9ce73/Documentos/Tecnoventas-document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Tecnoventas-document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{3C36DFA1-8B1A-48DF-9BBF-87DD37F56701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EC4A1C4-DBB1-41F5-A8D8-1FE7A0FB980A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FAA22B-F8D0-4285-A1E7-C1D4E2FCB17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
@@ -387,51 +387,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -443,7 +441,7 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -452,60 +450,57 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -808,8 +803,8 @@
   <dimension ref="A1:AV33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -820,1563 +815,1504 @@
     <col min="6" max="48" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="4" spans="1:48" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="30">
+      <c r="C4" s="44"/>
+      <c r="D4" s="28">
         <v>0</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f>D5+D4</f>
         <v>45078</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="46">
         <f>G5</f>
         <v>45078</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="47">
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="46">
         <f>N5</f>
         <v>45085</v>
       </c>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="47">
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="46">
         <f>U5</f>
         <v>45092</v>
       </c>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="47">
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="46">
         <f>AB5</f>
         <v>45099</v>
       </c>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="42"/>
-      <c r="AS4" s="42"/>
-      <c r="AT4" s="42"/>
-      <c r="AU4" s="42"/>
-      <c r="AV4" s="43"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="40"/>
+      <c r="AS4" s="40"/>
+      <c r="AT4" s="40"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="41"/>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="50">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="47">
         <v>45078</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="24">
+      <c r="E5" s="47"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="22">
         <f>E4</f>
         <v>45078</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="23">
         <f t="shared" ref="H5:AH5" si="0">G5+1</f>
         <v>45079</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="23">
         <f t="shared" si="0"/>
         <v>45080</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="23">
         <f t="shared" si="0"/>
         <v>45081</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="23">
         <f t="shared" si="0"/>
         <v>45082</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="23">
         <f t="shared" si="0"/>
         <v>45083</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="24">
         <f t="shared" si="0"/>
         <v>45084</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="25">
         <f t="shared" si="0"/>
         <v>45085</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="23">
         <f t="shared" si="0"/>
         <v>45086</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="23">
         <f t="shared" si="0"/>
         <v>45087</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="23">
         <f t="shared" si="0"/>
         <v>45088</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R5" s="23">
         <f t="shared" si="0"/>
         <v>45089</v>
       </c>
-      <c r="S5" s="25">
+      <c r="S5" s="23">
         <f t="shared" si="0"/>
         <v>45090</v>
       </c>
-      <c r="T5" s="26">
+      <c r="T5" s="24">
         <f t="shared" si="0"/>
         <v>45091</v>
       </c>
-      <c r="U5" s="27">
+      <c r="U5" s="25">
         <f t="shared" si="0"/>
         <v>45092</v>
       </c>
-      <c r="V5" s="25">
+      <c r="V5" s="23">
         <f t="shared" si="0"/>
         <v>45093</v>
       </c>
-      <c r="W5" s="25">
+      <c r="W5" s="23">
         <f t="shared" si="0"/>
         <v>45094</v>
       </c>
-      <c r="X5" s="25">
+      <c r="X5" s="23">
         <f t="shared" si="0"/>
         <v>45095</v>
       </c>
-      <c r="Y5" s="25">
+      <c r="Y5" s="23">
         <f t="shared" si="0"/>
         <v>45096</v>
       </c>
-      <c r="Z5" s="25">
+      <c r="Z5" s="23">
         <f t="shared" si="0"/>
         <v>45097</v>
       </c>
-      <c r="AA5" s="26">
+      <c r="AA5" s="24">
         <f t="shared" si="0"/>
         <v>45098</v>
       </c>
-      <c r="AB5" s="27">
+      <c r="AB5" s="25">
         <f t="shared" si="0"/>
         <v>45099</v>
       </c>
-      <c r="AC5" s="25">
+      <c r="AC5" s="23">
         <f t="shared" si="0"/>
         <v>45100</v>
       </c>
-      <c r="AD5" s="25">
+      <c r="AD5" s="23">
         <f t="shared" si="0"/>
         <v>45101</v>
       </c>
-      <c r="AE5" s="25">
+      <c r="AE5" s="23">
         <f t="shared" si="0"/>
         <v>45102</v>
       </c>
-      <c r="AF5" s="25">
+      <c r="AF5" s="23">
         <f t="shared" si="0"/>
         <v>45103</v>
       </c>
-      <c r="AG5" s="25">
+      <c r="AG5" s="23">
         <f t="shared" si="0"/>
         <v>45104</v>
       </c>
-      <c r="AH5" s="26">
+      <c r="AH5" s="24">
         <f t="shared" si="0"/>
         <v>45105</v>
       </c>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="37"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="36"/>
-      <c r="AS5" s="36"/>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="36"/>
-      <c r="AV5" s="37"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="34"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="34"/>
+      <c r="AS5" s="34"/>
+      <c r="AT5" s="34"/>
+      <c r="AU5" s="34"/>
+      <c r="AV5" s="35"/>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="23" t="str">
+      <c r="F6" s="7"/>
+      <c r="G6" s="21" t="str">
         <f>UPPER(LEFT(TEXT(G5,"ddd"),1))</f>
         <v>J</v>
       </c>
-      <c r="H6" s="21" t="str">
+      <c r="H6" s="19" t="str">
         <f t="shared" ref="H6:AH6" si="1">UPPER(LEFT(TEXT(H5,"ddd"),1))</f>
         <v>V</v>
       </c>
-      <c r="I6" s="21" t="str">
+      <c r="I6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="J6" s="21" t="str">
+      <c r="J6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="K6" s="21" t="str">
+      <c r="K6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="L6" s="21" t="str">
+      <c r="L6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>M</v>
       </c>
-      <c r="M6" s="22" t="str">
+      <c r="M6" s="20" t="str">
         <f t="shared" si="1"/>
         <v>M</v>
       </c>
-      <c r="N6" s="23" t="str">
+      <c r="N6" s="21" t="str">
         <f t="shared" si="1"/>
         <v>J</v>
       </c>
-      <c r="O6" s="21" t="str">
+      <c r="O6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>V</v>
       </c>
-      <c r="P6" s="21" t="str">
+      <c r="P6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="Q6" s="21" t="str">
+      <c r="Q6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="R6" s="21" t="str">
+      <c r="R6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="S6" s="21" t="str">
+      <c r="S6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>M</v>
       </c>
-      <c r="T6" s="22" t="str">
+      <c r="T6" s="20" t="str">
         <f t="shared" si="1"/>
         <v>M</v>
       </c>
-      <c r="U6" s="23" t="str">
+      <c r="U6" s="21" t="str">
         <f t="shared" si="1"/>
         <v>J</v>
       </c>
-      <c r="V6" s="21" t="str">
+      <c r="V6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>V</v>
       </c>
-      <c r="W6" s="21" t="str">
+      <c r="W6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="X6" s="21" t="str">
+      <c r="X6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="Y6" s="21" t="str">
+      <c r="Y6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="Z6" s="21" t="str">
+      <c r="Z6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>M</v>
       </c>
-      <c r="AA6" s="22" t="str">
+      <c r="AA6" s="20" t="str">
         <f t="shared" si="1"/>
         <v>M</v>
       </c>
-      <c r="AB6" s="23" t="str">
+      <c r="AB6" s="21" t="str">
         <f t="shared" si="1"/>
         <v>J</v>
       </c>
-      <c r="AC6" s="21" t="str">
+      <c r="AC6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>V</v>
       </c>
-      <c r="AD6" s="21" t="str">
+      <c r="AD6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="AE6" s="21" t="str">
+      <c r="AE6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="AF6" s="21" t="str">
+      <c r="AF6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="AG6" s="21" t="str">
+      <c r="AG6" s="19" t="str">
         <f t="shared" si="1"/>
         <v>M</v>
       </c>
-      <c r="AH6" s="22" t="str">
+      <c r="AH6" s="20" t="str">
         <f t="shared" si="1"/>
         <v>M</v>
       </c>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="39"/>
-      <c r="AL6" s="39"/>
-      <c r="AM6" s="39"/>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="40"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="39"/>
-      <c r="AR6" s="39"/>
-      <c r="AS6" s="39"/>
-      <c r="AT6" s="39"/>
-      <c r="AU6" s="39"/>
-      <c r="AV6" s="40"/>
-    </row>
-    <row r="7" spans="1:48" s="13" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="36"/>
+      <c r="AQ6" s="37"/>
+      <c r="AR6" s="37"/>
+      <c r="AS6" s="37"/>
+      <c r="AT6" s="37"/>
+      <c r="AU6" s="37"/>
+      <c r="AV6" s="38"/>
+    </row>
+    <row r="7" spans="1:48" s="11" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="20">
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18">
         <v>45082</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <v>45096</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="14"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="14"/>
-      <c r="AP7" s="14"/>
-      <c r="AQ7" s="14"/>
-      <c r="AR7" s="14"/>
-      <c r="AS7" s="14"/>
-      <c r="AT7" s="14"/>
-      <c r="AU7" s="14"/>
-      <c r="AV7" s="14"/>
-    </row>
-    <row r="8" spans="1:48" s="13" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+    </row>
+    <row r="8" spans="1:48" s="11" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="9">
-        <v>1</v>
-      </c>
-      <c r="D8" s="20">
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18">
         <v>45082</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <v>45096</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="14"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="14"/>
-      <c r="AP8" s="14"/>
-      <c r="AQ8" s="14"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="14"/>
-      <c r="AT8" s="14"/>
-      <c r="AU8" s="14"/>
-      <c r="AV8" s="14"/>
-    </row>
-    <row r="9" spans="1:48" s="13" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+    </row>
+    <row r="9" spans="1:48" s="11" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="20">
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18">
         <v>45082</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="18">
         <v>45096</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="14"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="14"/>
-      <c r="AT9" s="14"/>
-      <c r="AU9" s="14"/>
-      <c r="AV9" s="14"/>
-    </row>
-    <row r="10" spans="1:48" s="13" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
+    </row>
+    <row r="10" spans="1:48" s="11" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="20">
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18">
         <v>45097</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="18">
         <v>45107</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="29"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
-      <c r="AM10" s="14"/>
-      <c r="AN10" s="14"/>
-      <c r="AO10" s="14"/>
-      <c r="AP10" s="14"/>
-      <c r="AQ10" s="14"/>
-      <c r="AR10" s="14"/>
-      <c r="AS10" s="14"/>
-      <c r="AT10" s="14"/>
-      <c r="AU10" s="14"/>
-      <c r="AV10" s="14"/>
-    </row>
-    <row r="11" spans="1:48" s="13" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="12"/>
+      <c r="AU10" s="12"/>
+      <c r="AV10" s="12"/>
+    </row>
+    <row r="11" spans="1:48" s="11" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="9">
-        <v>1</v>
-      </c>
-      <c r="D11" s="20">
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18">
         <v>45097</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="18">
         <v>45107</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="14"/>
-      <c r="AM11" s="14"/>
-      <c r="AN11" s="14"/>
-      <c r="AO11" s="14"/>
-      <c r="AP11" s="14"/>
-      <c r="AQ11" s="14"/>
-      <c r="AR11" s="14"/>
-      <c r="AS11" s="14"/>
-      <c r="AT11" s="14"/>
-      <c r="AU11" s="14"/>
-      <c r="AV11" s="14"/>
-    </row>
-    <row r="12" spans="1:48" s="13" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="12"/>
+    </row>
+    <row r="12" spans="1:48" s="11" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-      <c r="D12" s="20">
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="18">
         <v>45121</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="18">
         <v>45142</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="29"/>
-      <c r="AR12" s="29"/>
-      <c r="AS12" s="29"/>
-      <c r="AT12" s="29"/>
-      <c r="AU12" s="29"/>
-      <c r="AV12" s="29"/>
-    </row>
-    <row r="13" spans="1:48" s="13" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="27"/>
+      <c r="AP12" s="27"/>
+      <c r="AQ12" s="27"/>
+      <c r="AR12" s="27"/>
+      <c r="AS12" s="27"/>
+      <c r="AT12" s="27"/>
+      <c r="AU12" s="27"/>
+      <c r="AV12" s="27"/>
+    </row>
+    <row r="13" spans="1:48" s="11" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="20">
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="18">
         <v>45121</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="18">
         <v>45128</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="28"/>
-      <c r="AL13" s="28"/>
-      <c r="AM13" s="14"/>
-      <c r="AN13" s="14"/>
-      <c r="AO13" s="14"/>
-      <c r="AP13" s="14"/>
-      <c r="AQ13" s="14"/>
-      <c r="AR13" s="14"/>
-      <c r="AS13" s="14"/>
-      <c r="AT13" s="14"/>
-      <c r="AU13" s="14"/>
-      <c r="AV13" s="14"/>
-    </row>
-    <row r="14" spans="1:48" s="13" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="12"/>
+    </row>
+    <row r="14" spans="1:48" s="11" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="B14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="18">
         <v>45153</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="18">
         <v>45169</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="14"/>
-      <c r="AI14" s="14"/>
-      <c r="AJ14" s="14"/>
-      <c r="AK14" s="14"/>
-      <c r="AL14" s="14"/>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="14"/>
-      <c r="AO14" s="14"/>
-      <c r="AP14" s="14"/>
-      <c r="AQ14" s="14"/>
-      <c r="AR14" s="14"/>
-      <c r="AS14" s="14"/>
-      <c r="AT14" s="14"/>
-      <c r="AU14" s="14"/>
-      <c r="AV14" s="14"/>
-    </row>
-    <row r="15" spans="1:48" s="13" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+    </row>
+    <row r="15" spans="1:48" s="11" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="9">
-        <v>1</v>
-      </c>
-      <c r="D15" s="20">
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="18">
         <v>45153</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="18">
         <v>45169</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="14"/>
-      <c r="AN15" s="14"/>
-      <c r="AO15" s="14"/>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="14"/>
-      <c r="AR15" s="14"/>
-      <c r="AS15" s="14"/>
-      <c r="AT15" s="14"/>
-      <c r="AU15" s="14"/>
-      <c r="AV15" s="14"/>
-    </row>
-    <row r="16" spans="1:48" s="13" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+    </row>
+    <row r="16" spans="1:48" s="11" customFormat="1" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="9">
-        <v>1</v>
-      </c>
-      <c r="D16" s="20">
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="18">
         <v>45173</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="18">
         <v>45180</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="29"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="14"/>
-      <c r="AR16" s="14"/>
-      <c r="AS16" s="14"/>
-      <c r="AT16" s="14"/>
-      <c r="AU16" s="14"/>
-      <c r="AV16" s="14"/>
-    </row>
-    <row r="17" spans="1:48" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+    </row>
+    <row r="17" spans="1:44" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="9">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
         <v>45224</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>45261</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="18"/>
-      <c r="AJ17" s="18"/>
-      <c r="AK17" s="18"/>
-      <c r="AL17" s="18"/>
-      <c r="AM17" s="18"/>
-      <c r="AN17" s="18"/>
-      <c r="AO17" s="18"/>
-      <c r="AP17" s="18"/>
-      <c r="AQ17" s="18"/>
-      <c r="AR17" s="18"/>
-      <c r="AS17" s="11"/>
-      <c r="AT17" s="11"/>
-      <c r="AU17" s="11"/>
-      <c r="AV17" s="11"/>
-    </row>
-    <row r="18" spans="1:48" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="16"/>
+      <c r="AO17" s="16"/>
+      <c r="AP17" s="16"/>
+      <c r="AQ17" s="16"/>
+      <c r="AR17" s="16"/>
+    </row>
+    <row r="18" spans="1:44" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="9">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
         <v>45224</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>45261</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="12"/>
-      <c r="AJ18" s="12"/>
-      <c r="AK18" s="12"/>
-      <c r="AL18" s="12"/>
-      <c r="AM18" s="12"/>
-      <c r="AN18" s="12"/>
-      <c r="AO18" s="12"/>
-      <c r="AP18" s="12"/>
-      <c r="AQ18" s="12"/>
-      <c r="AR18" s="12"/>
-      <c r="AS18" s="11"/>
-      <c r="AT18" s="11"/>
-      <c r="AU18" s="11"/>
-      <c r="AV18" s="11"/>
-    </row>
-    <row r="19" spans="1:48" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+    </row>
+    <row r="19" spans="1:44" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
         <v>45224</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>45261</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="12"/>
-      <c r="AI19" s="12"/>
-      <c r="AJ19" s="12"/>
-      <c r="AK19" s="12"/>
-      <c r="AL19" s="12"/>
-      <c r="AM19" s="12"/>
-      <c r="AN19" s="12"/>
-      <c r="AO19" s="12"/>
-      <c r="AP19" s="12"/>
-      <c r="AQ19" s="12"/>
-      <c r="AR19" s="12"/>
-      <c r="AS19" s="11"/>
-      <c r="AT19" s="11"/>
-      <c r="AU19" s="11"/>
-      <c r="AV19" s="11"/>
-    </row>
-    <row r="20" spans="1:48" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="10"/>
+    </row>
+    <row r="20" spans="1:44" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="9">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
         <v>45255</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>45261</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
-      <c r="AI20" s="12"/>
-      <c r="AJ20" s="12"/>
-      <c r="AK20" s="12"/>
-      <c r="AL20" s="12"/>
-      <c r="AM20" s="12"/>
-      <c r="AN20" s="12"/>
-      <c r="AO20" s="12"/>
-      <c r="AP20" s="12"/>
-      <c r="AQ20" s="12"/>
-      <c r="AR20" s="12"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
-    </row>
-    <row r="21" spans="1:48" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="10"/>
+      <c r="AQ20" s="10"/>
+      <c r="AR20" s="10"/>
+    </row>
+    <row r="21" spans="1:44" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="9">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
         <v>45255</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>45271</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
-      <c r="AJ21" s="12"/>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12"/>
-      <c r="AM21" s="12"/>
-      <c r="AN21" s="12"/>
-      <c r="AO21" s="12"/>
-      <c r="AP21" s="12"/>
-      <c r="AQ21" s="12"/>
-      <c r="AR21" s="12"/>
-      <c r="AS21" s="11"/>
-      <c r="AT21" s="11"/>
-      <c r="AU21" s="11"/>
-      <c r="AV21" s="11"/>
-    </row>
-    <row r="22" spans="1:48" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="10"/>
+      <c r="AQ21" s="10"/>
+      <c r="AR21" s="10"/>
+    </row>
+    <row r="22" spans="1:44" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="9">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
         <v>45255</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>45271</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
-      <c r="AO22" s="12"/>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="11"/>
-      <c r="AT22" s="11"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="11"/>
-    </row>
-    <row r="23" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+    </row>
+    <row r="23" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="B23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
         <v>45255</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>45261</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="11"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="11"/>
-      <c r="AN23" s="11"/>
-      <c r="AO23" s="11"/>
-      <c r="AP23" s="11"/>
-      <c r="AQ23" s="11"/>
-      <c r="AR23" s="11"/>
-    </row>
-    <row r="24" spans="1:48" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="1:44" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="9">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6">
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
         <v>45261</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>45267</v>
       </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-    </row>
-    <row r="25" spans="1:48" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+    </row>
+    <row r="25" spans="1:44" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="9">
-        <v>1</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
         <v>45261</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>45267</v>
       </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-    </row>
-    <row r="26" spans="1:48" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+    </row>
+    <row r="26" spans="1:44" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="9">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
         <v>45261</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>45267</v>
       </c>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-    </row>
-    <row r="27" spans="1:48" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+    </row>
+    <row r="27" spans="1:44" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="9">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
         <v>45261</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>45267</v>
       </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-    </row>
-    <row r="28" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+    </row>
+    <row r="28" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="9">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
         <v>45261</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>45267</v>
       </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-    </row>
-    <row r="29" spans="1:48" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+    </row>
+    <row r="29" spans="1:44" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="9">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
         <v>45323</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>45334</v>
       </c>
     </row>
-    <row r="30" spans="1:48" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:44" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="9">
-        <v>1</v>
-      </c>
-      <c r="D30" s="51">
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" s="43">
         <v>45345</v>
       </c>
-      <c r="E30" s="51">
+      <c r="E30" s="43">
         <v>45352</v>
       </c>
     </row>
-    <row r="31" spans="1:48" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:44" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D31" s="51">
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="43">
         <v>45345</v>
       </c>
-      <c r="E31" s="51">
+      <c r="E31" s="43">
         <v>45352</v>
       </c>
     </row>
-    <row r="32" spans="1:48" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:44" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="9">
+      <c r="B32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="D32" s="43">
+        <v>45345</v>
+      </c>
+      <c r="E32" s="43">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="8">
         <v>0.1</v>
       </c>
-      <c r="D32" s="51">
+      <c r="D33" s="43">
         <v>45345</v>
       </c>
-      <c r="E32" s="51">
-        <v>45352</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D33" s="51">
-        <v>45345</v>
-      </c>
-      <c r="E33" s="51">
+      <c r="E33" s="43">
         <v>45352</v>
       </c>
     </row>

--- a/Diagrama Gantt Tecnoventas.xlsx
+++ b/Diagrama Gantt Tecnoventas.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Tecnoventas-document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FAA22B-F8D0-4285-A1E7-C1D4E2FCB17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41EA3DB-5960-400F-BC40-84D2343552E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>Santiago</t>
   </si>
@@ -181,9 +170,6 @@
   </si>
   <si>
     <t>Generar PDF Del Pedido</t>
-  </si>
-  <si>
-    <t>Actualizar Cantidad Del Producto En El Carrito</t>
   </si>
 </sst>
 </file>
@@ -194,7 +180,7 @@
     <numFmt numFmtId="164" formatCode="dd"/>
     <numFmt numFmtId="165" formatCode="ddd\,\ dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -269,6 +255,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -387,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -500,6 +495,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2290,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D32" s="43">
         <v>45345</v>
@@ -2299,22 +2297,12 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D33" s="43">
-        <v>45345</v>
-      </c>
-      <c r="E33" s="43">
-        <v>45352</v>
-      </c>
+    <row r="33" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2352,11 +2340,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:AH28">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>AND(G$5&gt;=$D7,G$5&lt;=$E7)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C30">
     <cfRule type="dataBar" priority="1">
       <dataBar>
@@ -2381,6 +2364,11 @@
           <x14:id>{BDCCE43A-A470-44BD-B4ED-0A702F534F89}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:AH28">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>AND(G$5&gt;=$D7,G$5&lt;=$E7)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
